--- a/project2_4_plot1.xlsx
+++ b/project2_4_plot1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentkit-my.sharepoint.com/personal/upjjv_student_kit_edu/Documents/Dokumente/GitHub/EMBE-Group/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\EMBE-Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{83040990-60B4-429D-BAE4-21843F56B832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1692AD1-5F5C-4A1F-9D89-64E7ED008A8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDCDDE-32A7-4793-94D3-F700C886AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FFB26863-EC21-4756-9CC2-5069C2E16623}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FFB26863-EC21-4756-9CC2-5069C2E16623}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -89,6 +84,2801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Step Responce</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed motor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$1:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$1:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DFE-482E-8A4C-CC70FF0B9E3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PWM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$1:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$1:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DFE-482E-8A4C-CC70FF0B9E3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="652229736"/>
+        <c:axId val="652228656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="652229736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652228656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="652228656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speed in rad/s / PWM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in %</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652229736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to motor load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PWM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$1:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69CD-49A3-8D34-6B4C42D22C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="656106344"/>
+        <c:axId val="656109224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="656106344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656109224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656109224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>PWM in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656106344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4CC86D-F573-A7BC-4DD9-C2E313AD4F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB95FFDE-C589-5A15-3DD6-EA1C8ACC6351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F056CF-876A-A809-FA79-351BDAFD9CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375150" y="1009650"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7771D6-5751-415D-BC1D-891511B208A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="781050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,511 +3178,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28182EE3-FEEC-4E90-AC66-2276E5EE7049}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1.46</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1.46</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1.87</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1.87</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2.87</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>4.12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>4.54</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4.92</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>5.41</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>5.61</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>6.18</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>6.37</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>6.7</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>6.68</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>6.86</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>6.95</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>6.88</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>6.86</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>6.99</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>6.97</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>6.86</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>6.95</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>6.99</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>6.88</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>6.97</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>6.97</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>6.93</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>6.95</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>6.99</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>6.97</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>6.97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33">
         <v>7.03</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34">
         <v>6.99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35">
         <v>6.84</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36">
         <v>7.01</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37">
         <v>6.99</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38">
         <v>6.88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB647A7D-B127-4837-82AC-21FA8C1404C3}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
+        <v>50</v>
+      </c>
+      <c r="B1">
         <v>0.59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>51</v>
+      </c>
+      <c r="B2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5">
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
         <v>0.67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7">
         <v>0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>57</v>
+      </c>
+      <c r="B8">
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>58</v>
+      </c>
+      <c r="B9">
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>61</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>62</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>64</v>
+      </c>
+      <c r="B15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>65</v>
+      </c>
+      <c r="B16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>66</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>67</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
+        <v>69</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
+        <v>71</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
+        <v>72</v>
+      </c>
+      <c r="B23">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
+        <v>73</v>
+      </c>
+      <c r="B24">
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
+        <v>74</v>
+      </c>
+      <c r="B25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26">
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
+        <v>76</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
+        <v>77</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
+        <v>78</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>79</v>
+      </c>
+      <c r="B30">
         <v>0.86</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31">
         <v>0.49</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
+        <v>81</v>
+      </c>
+      <c r="B32">
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
+        <v>82</v>
+      </c>
+      <c r="B33">
         <v>0.36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34">
         <v>0.53</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
+        <v>84</v>
+      </c>
+      <c r="B35">
         <v>0.53</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
+        <v>85</v>
+      </c>
+      <c r="B36">
         <v>0.54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
+        <v>86</v>
+      </c>
+      <c r="B37">
         <v>0.59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
+        <v>87</v>
+      </c>
+      <c r="B38">
         <v>0.59</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>88</v>
+      </c>
+      <c r="B39">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>